--- a/forms/app/patient_screening.xlsx
+++ b/forms/app/patient_screening.xlsx
@@ -1,25 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senseibara/Documents/MEDIC/config-cht-demo/forms/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CF6807-0B3C-574A-AFCC-18AB0F744C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>type</t>
   </si>
@@ -166,52 +175,9 @@
     <t>calculate</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>This field is required</t>
-  </si>
-  <si>
-    <t>Ce champ est obligatoire</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>has_symptoms</t>
-  </si>
-  <si>
-    <t>Has Symptoms</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF808000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>if(${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>symptoms},’true’,’false’)</t>
-    </r>
-  </si>
-  <si>
     <t>symptoms_group</t>
   </si>
   <si>
@@ -233,27 +199,15 @@
     <t>&lt;style&gt;.pages .loader { display: none; }&lt;/style&gt;</t>
   </si>
   <si>
-    <t>${has_symptoms}=’true’</t>
-  </si>
-  <si>
     <t>summary-group</t>
   </si>
   <si>
     <t>Summary of Assessment Result</t>
   </si>
   <si>
-    <t>${has_symptoms}=’false’</t>
-  </si>
-  <si>
-    <t>negative_result</t>
-  </si>
-  <si>
     <t>style</t>
   </si>
   <si>
-    <t>&lt;style&gt;[name='/covid_rdt/summary-group'] ul { margin: 10px 0 0 25px; list-style: disc; }&lt;/style&gt;</t>
-  </si>
-  <si>
     <t>list_name</t>
   </si>
   <si>
@@ -326,25 +280,6 @@
     <t>patient_screening</t>
   </si>
   <si>
-    <t>yes_symptoms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;ul&gt;&lt;li&gt;Advise your patient to stay home and avoid seeing other people if possible.&lt;/li&gt;&lt;li&gt;Your patient should call or text if symptoms worsen or new symptoms arise.&lt;/li&gt;&lt;li&gt;Follow up with your patient in 24 hours.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;ul&gt;&lt;li&gt;Conseillez à votre patient de rester à la maison et d'éviter de voir d'autres personnes si possible.&lt;/li&gt;&lt;li&gt;Votre patient doit appeler ou envoyer un SMS si les symptômes s'aggravent ou si de nouveaux symptômes apparaissent.&lt;/li&gt;&lt;li&gt;Faire un suivi de votre patient dans les 24 heures.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;ul&gt;&lt;li&gt;Accompany the patient to the health facility for clinical test and care.&lt;/li&gt;&lt;li&gt;Keep a safe physical distance from the patient and wear a mask and gloves to protect yourself.&lt;/li&gt;&lt;li&gt;Help the patient keep a safe physical distance (greater than 2 meters) from others while traveling.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-&lt;ul&gt;&lt;li&gt;Accompagnez le patient à l'établissement de santé pour les tests et les soins cliniques.&lt;/li&gt;&lt;li&gt; Gardez une distance physique de sécurité avec le patient et portez un masque et des gants pour vous protéger.&lt;/li&gt;&lt;li&gt;Aidez le patient à garder une distance physique de sécurité (supérieure à 2 mètres) avec les autres lors de ses déplacements.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>Cough</t>
   </si>
   <si>
@@ -385,12 +320,36 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>select_one select_signal_type</t>
+  </si>
+  <si>
+    <t>signal_type</t>
+  </si>
+  <si>
+    <t>What type of signal are you reporting?</t>
+  </si>
+  <si>
+    <t>(Please note you can only report one signal at a time)</t>
+  </si>
+  <si>
+    <t>signal_type_desc</t>
+  </si>
+  <si>
+    <t>Signal Description</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${signal_type}, '${signal_type}')</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -436,13 +395,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF808000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF993366"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -477,6 +429,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -531,16 +488,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -591,12 +548,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -607,19 +558,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +602,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -739,6 +697,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1006,11 +967,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMN24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,15 +989,15 @@
     <col min="12" max="13" width="39" style="1" customWidth="1"/>
     <col min="14" max="14" width="21.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="68.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="24.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5" style="1" customWidth="1"/>
-    <col min="20" max="30" width="10.5" style="1" customWidth="1"/>
-    <col min="31" max="1018" width="10.5" customWidth="1"/>
-    <col min="1019" max="1028" width="8.33203125" customWidth="1"/>
+    <col min="16" max="17" width="25.6640625" style="1" customWidth="1"/>
+    <col min="18" max="19" width="24.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5" style="1" customWidth="1"/>
+    <col min="21" max="31" width="10.5" style="1" customWidth="1"/>
+    <col min="32" max="1019" width="10.5" customWidth="1"/>
+    <col min="1020" max="1029" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1027" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1028" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1074,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -1086,21 +1047,23 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AME1"/>
       <c r="AMF1"/>
       <c r="AMG1"/>
       <c r="AMH1"/>
@@ -1109,8 +1072,9 @@
       <c r="AMK1"/>
       <c r="AML1"/>
       <c r="AMM1"/>
-    </row>
-    <row r="2" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN1"/>
+    </row>
+    <row r="2" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
@@ -1139,10 +1103,10 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="U2" s="7" t="s">
+      <c r="Q2" s="6"/>
+      <c r="V2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AME2"/>
       <c r="AMF2"/>
       <c r="AMG2"/>
       <c r="AMH2"/>
@@ -1151,8 +1115,9 @@
       <c r="AMK2"/>
       <c r="AML2"/>
       <c r="AMM2"/>
-    </row>
-    <row r="3" spans="1:1027" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN2"/>
+    </row>
+    <row r="3" spans="1:1028" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
@@ -1173,7 +1138,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="8"/>
-      <c r="AME3"/>
+      <c r="Q3" s="8"/>
       <c r="AMF3"/>
       <c r="AMG3"/>
       <c r="AMH3"/>
@@ -1182,8 +1147,9 @@
       <c r="AMK3"/>
       <c r="AML3"/>
       <c r="AMM3"/>
-    </row>
-    <row r="4" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN3"/>
+    </row>
+    <row r="4" spans="1:1028" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>24</v>
       </c>
@@ -1210,8 +1176,8 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="AME4"/>
+      <c r="Q4" s="41"/>
+      <c r="T4" s="9"/>
       <c r="AMF4"/>
       <c r="AMG4"/>
       <c r="AMH4"/>
@@ -1220,8 +1186,9 @@
       <c r="AMK4"/>
       <c r="AML4"/>
       <c r="AMM4"/>
-    </row>
-    <row r="5" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN4"/>
+    </row>
+    <row r="5" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1213,7 @@
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="AME5"/>
+      <c r="Q5" s="6"/>
       <c r="AMF5"/>
       <c r="AMG5"/>
       <c r="AMH5"/>
@@ -1255,8 +1222,9 @@
       <c r="AMK5"/>
       <c r="AML5"/>
       <c r="AMM5"/>
-    </row>
-    <row r="6" spans="1:1027" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN5"/>
+    </row>
+    <row r="6" spans="1:1028" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>31</v>
       </c>
@@ -1275,10 +1243,10 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="13"/>
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
-      <c r="AME6"/>
+      <c r="T6" s="14"/>
       <c r="AMF6"/>
       <c r="AMG6"/>
       <c r="AMH6"/>
@@ -1287,8 +1255,9 @@
       <c r="AMK6"/>
       <c r="AML6"/>
       <c r="AMM6"/>
-    </row>
-    <row r="7" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN6"/>
+    </row>
+    <row r="7" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1282,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-      <c r="AME7"/>
+      <c r="Q7" s="6"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
@@ -1322,8 +1291,9 @@
       <c r="AMK7"/>
       <c r="AML7"/>
       <c r="AMM7"/>
-    </row>
-    <row r="8" spans="1:1027" x14ac:dyDescent="0.2">
+      <c r="AMN7"/>
+    </row>
+    <row r="8" spans="1:1028" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1364,8 +1334,9 @@
       <c r="AB8"/>
       <c r="AC8"/>
       <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:1027" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE8"/>
+    </row>
+    <row r="9" spans="1:1028" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1392,10 +1363,10 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="16"/>
+      <c r="Q9" s="41"/>
       <c r="R9" s="16"/>
-      <c r="S9" s="9"/>
-      <c r="AME9"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="9"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
@@ -1404,8 +1375,9 @@
       <c r="AMK9"/>
       <c r="AML9"/>
       <c r="AMM9"/>
-    </row>
-    <row r="10" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN9"/>
+    </row>
+    <row r="10" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -1432,8 +1404,8 @@
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="AME10"/>
+      <c r="Q10" s="41"/>
+      <c r="T10" s="9"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
@@ -1442,8 +1414,9 @@
       <c r="AMK10"/>
       <c r="AML10"/>
       <c r="AMM10"/>
-    </row>
-    <row r="11" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN10"/>
+    </row>
+    <row r="11" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -1470,8 +1443,8 @@
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="AME11"/>
+      <c r="Q11" s="41"/>
+      <c r="T11" s="9"/>
       <c r="AMF11"/>
       <c r="AMG11"/>
       <c r="AMH11"/>
@@ -1480,8 +1453,9 @@
       <c r="AMK11"/>
       <c r="AML11"/>
       <c r="AMM11"/>
-    </row>
-    <row r="12" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN11"/>
+    </row>
+    <row r="12" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>40</v>
       </c>
@@ -1506,8 +1480,8 @@
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="AME12"/>
+      <c r="Q12" s="41"/>
+      <c r="T12" s="9"/>
       <c r="AMF12"/>
       <c r="AMG12"/>
       <c r="AMH12"/>
@@ -1516,8 +1490,9 @@
       <c r="AMK12"/>
       <c r="AML12"/>
       <c r="AMM12"/>
-    </row>
-    <row r="13" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN12"/>
+    </row>
+    <row r="13" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1511,7 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="AME13"/>
+      <c r="Q13" s="6"/>
       <c r="AMF13"/>
       <c r="AMG13"/>
       <c r="AMH13"/>
@@ -1545,8 +1520,9 @@
       <c r="AMK13"/>
       <c r="AML13"/>
       <c r="AMM13"/>
-    </row>
-    <row r="14" spans="1:1027" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN13"/>
+    </row>
+    <row r="14" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -1565,7 +1541,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="AME14"/>
+      <c r="Q14" s="6"/>
       <c r="AMF14"/>
       <c r="AMG14"/>
       <c r="AMH14"/>
@@ -1574,90 +1550,92 @@
       <c r="AMK14"/>
       <c r="AML14"/>
       <c r="AMM14"/>
-    </row>
-    <row r="15" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="AMN14"/>
+    </row>
+    <row r="15" spans="1:1028" s="37" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="O15" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="33"/>
+      <c r="AE15" s="33"/>
+    </row>
+    <row r="16" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="19"/>
-      <c r="O15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="U15" s="17" t="s">
+      <c r="D16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
-      <c r="AML15"/>
-      <c r="AMM15"/>
-    </row>
-    <row r="16" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" s="19"/>
-      <c r="U16" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="AME16"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
       <c r="AMF16"/>
       <c r="AMG16"/>
       <c r="AMH16"/>
@@ -1666,49 +1644,38 @@
       <c r="AMK16"/>
       <c r="AML16"/>
       <c r="AMM16"/>
-    </row>
-    <row r="17" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="AMN16"/>
+    </row>
+    <row r="17" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="20" t="s">
-        <v>21</v>
-      </c>
+      <c r="H17" s="30"/>
       <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
-      <c r="AB17" s="21"/>
-      <c r="AME17"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
       <c r="AMF17"/>
       <c r="AMG17"/>
       <c r="AMH17"/>
@@ -1717,111 +1684,98 @@
       <c r="AMK17"/>
       <c r="AML17"/>
       <c r="AMM17"/>
-    </row>
-    <row r="18" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
-      <c r="AML18"/>
-      <c r="AMM18"/>
-    </row>
-    <row r="19" spans="1:1027" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="38"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="38"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AME19" s="40"/>
-      <c r="AMF19" s="40"/>
-      <c r="AMG19" s="40"/>
-      <c r="AMH19" s="40"/>
-      <c r="AMI19" s="40"/>
-      <c r="AMJ19" s="40"/>
-      <c r="AMK19" s="40"/>
-      <c r="AML19" s="40"/>
-      <c r="AMM19" s="40"/>
-    </row>
-    <row r="20" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AMN17"/>
+    </row>
+    <row r="18" spans="1:1028" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AMF18" s="37"/>
+      <c r="AMG18" s="37"/>
+      <c r="AMH18" s="37"/>
+      <c r="AMI18" s="37"/>
+      <c r="AMJ18" s="37"/>
+      <c r="AMK18" s="37"/>
+      <c r="AML18" s="37"/>
+      <c r="AMM18" s="37"/>
+      <c r="AMN18" s="37"/>
+    </row>
+    <row r="19" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="AMF19"/>
+      <c r="AMG19"/>
+      <c r="AMH19"/>
+      <c r="AMI19"/>
+      <c r="AMJ19"/>
+      <c r="AMK19"/>
+      <c r="AML19"/>
+      <c r="AMM19"/>
+      <c r="AMN19"/>
+    </row>
+    <row r="20" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="AME20"/>
+        <v>50</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="I20" s="21"/>
       <c r="AMF20"/>
       <c r="AMG20"/>
       <c r="AMH20"/>
@@ -1830,23 +1784,19 @@
       <c r="AMK20"/>
       <c r="AML20"/>
       <c r="AMM20"/>
-    </row>
-    <row r="21" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="AME21"/>
+      <c r="AMN20"/>
+    </row>
+    <row r="21" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="I21" s="21"/>
       <c r="AMF21"/>
       <c r="AMG21"/>
       <c r="AMH21"/>
@@ -1855,172 +1805,73 @@
       <c r="AMK21"/>
       <c r="AML21"/>
       <c r="AMM21"/>
-    </row>
-    <row r="22" spans="1:1027" s="17" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
-      <c r="AML22"/>
-      <c r="AMM22"/>
-    </row>
-    <row r="23" spans="1:1027" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="AMN21"/>
+    </row>
+    <row r="22" spans="1:1028" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="H23" s="20" t="s">
+      <c r="B22" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="H22" s="18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:1027" ht="144" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="25" t="s">
+    <row r="23" spans="1:1028" s="37" customFormat="1" ht="29" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="C23" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" spans="1:1027" ht="128" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25" t="s">
-        <v>63</v>
-      </c>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-    </row>
-    <row r="26" spans="1:1027" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:1027" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
+      <c r="D23" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q23" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="33"/>
+      <c r="AD23" s="33"/>
+      <c r="AE23" s="33"/>
+    </row>
+    <row r="24" spans="1:1028" x14ac:dyDescent="0.2">
+      <c r="A24" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2031,7 +1882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -2040,112 +1891,112 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="76.1640625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="103.6640625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="76.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="103.6640625" style="24" customWidth="1"/>
     <col min="5" max="1022" width="10.5" customWidth="1"/>
     <col min="1023" max="1025" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="29" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="28" t="s">
-        <v>83</v>
+      <c r="D1" s="25" t="s">
+        <v>71</v>
       </c>
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>68</v>
+    <row r="2" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="B6" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="31" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>107</v>
+      <c r="D6" s="24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1024" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2155,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -2164,53 +2015,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="121.5" style="27" customWidth="1"/>
-    <col min="2" max="2" width="58.5" style="27" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="121.5" style="24" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="24" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" style="24" customWidth="1"/>
     <col min="7" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="29" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="30" t="s">
+    <row r="1" spans="1:6" s="26" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="30" t="s">
+    </row>
+    <row r="2" spans="1:6" s="24" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="27" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="22" t="str">
+      <c r="B2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="20" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-03-25 2-25</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="31"/>
+        <v>2020-04-02 10-11</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/forms/app/patient_screening.xlsx
+++ b/forms/app/patient_screening.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="90">
   <si>
     <t>type</t>
   </si>
@@ -243,15 +243,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>Évaluation des patients pour les contacts symptomatiques</t>
-  </si>
-  <si>
-    <t>Votre patient présente-t-il l'un des symptômes suivants ?</t>
-  </si>
-  <si>
-    <t>Résumé des résultats de l'évaluation</t>
-  </si>
-  <si>
     <t>Patient screening</t>
   </si>
   <si>
@@ -312,12 +303,6 @@
     <t>jr:choice-name(${signal_type}, '${signal_type}')</t>
   </si>
   <si>
-    <t>label::sh</t>
-  </si>
-  <si>
-    <t>required_message::sh</t>
-  </si>
-  <si>
     <t>constraint_message::sh</t>
   </si>
   <si>
@@ -325,24 +310,6 @@
   </si>
   <si>
     <t>media::image::sh</t>
-  </si>
-  <si>
-    <t>Kupindwa ne chando</t>
-  </si>
-  <si>
-    <t>Kukosora</t>
-  </si>
-  <si>
-    <t>Kuzarirwa</t>
-  </si>
-  <si>
-    <t>Kurwadziwa nepahuro</t>
-  </si>
-  <si>
-    <t>Hongu</t>
-  </si>
-  <si>
-    <t>kwete</t>
   </si>
 </sst>
 </file>
@@ -967,36 +934,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMN24"/>
+  <dimension ref="A1:AML24"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="41.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="1" customWidth="1"/>
     <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="39" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="39" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="68.375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="25.625" style="1" customWidth="1"/>
-    <col min="18" max="19" width="24.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="1" customWidth="1"/>
-    <col min="21" max="31" width="10.5" style="1" customWidth="1"/>
-    <col min="32" max="1019" width="10.5" customWidth="1"/>
-    <col min="1020" max="1029" width="8.375" customWidth="1"/>
+    <col min="9" max="9" width="25.875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="39" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="68.375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="25.625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="24.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="1" customWidth="1"/>
+    <col min="19" max="29" width="10.5" style="1" customWidth="1"/>
+    <col min="30" max="1017" width="10.5" customWidth="1"/>
+    <col min="1018" max="1027" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1028" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1026" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1007,62 +973,58 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="AMD1"/>
+      <c r="AME1"/>
       <c r="AMF1"/>
       <c r="AMG1"/>
       <c r="AMH1"/>
@@ -1070,10 +1032,8 @@
       <c r="AMJ1"/>
       <c r="AMK1"/>
       <c r="AML1"/>
-      <c r="AMM1"/>
-      <c r="AMN1"/>
-    </row>
-    <row r="2" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1026" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -1083,29 +1043,27 @@
       <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="V2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="AMD2"/>
+      <c r="AME2"/>
       <c r="AMF2"/>
       <c r="AMG2"/>
       <c r="AMH2"/>
@@ -1113,10 +1071,8 @@
       <c r="AMJ2"/>
       <c r="AMK2"/>
       <c r="AML2"/>
-      <c r="AMM2"/>
-      <c r="AMN2"/>
-    </row>
-    <row r="3" spans="1:1028" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1026" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -1126,18 +1082,17 @@
       <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="F3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="AMD3"/>
+      <c r="AME3"/>
       <c r="AMF3"/>
       <c r="AMG3"/>
       <c r="AMH3"/>
@@ -1145,10 +1100,8 @@
       <c r="AMJ3"/>
       <c r="AMK3"/>
       <c r="AML3"/>
-      <c r="AMM3"/>
-      <c r="AMN3"/>
-    </row>
-    <row r="4" spans="1:1028" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1026" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
@@ -1158,25 +1111,23 @@
       <c r="C4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="41"/>
-      <c r="T4" s="9"/>
+      <c r="O4" s="41"/>
+      <c r="R4" s="9"/>
+      <c r="AMD4"/>
+      <c r="AME4"/>
       <c r="AMF4"/>
       <c r="AMG4"/>
       <c r="AMH4"/>
@@ -1184,10 +1135,8 @@
       <c r="AMJ4"/>
       <c r="AMK4"/>
       <c r="AML4"/>
-      <c r="AMM4"/>
-      <c r="AMN4"/>
-    </row>
-    <row r="5" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1026" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1197,22 +1146,20 @@
       <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="AMD5"/>
+      <c r="AME5"/>
       <c r="AMF5"/>
       <c r="AMG5"/>
       <c r="AMH5"/>
@@ -1220,32 +1167,30 @@
       <c r="AMJ5"/>
       <c r="AMK5"/>
       <c r="AML5"/>
-      <c r="AMM5"/>
-      <c r="AMN5"/>
-    </row>
-    <row r="6" spans="1:1028" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1026" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
+      <c r="AMD6"/>
+      <c r="AME6"/>
       <c r="AMF6"/>
       <c r="AMG6"/>
       <c r="AMH6"/>
@@ -1253,10 +1198,8 @@
       <c r="AMJ6"/>
       <c r="AMK6"/>
       <c r="AML6"/>
-      <c r="AMM6"/>
-      <c r="AMN6"/>
-    </row>
-    <row r="7" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1026" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -1266,22 +1209,20 @@
       <c r="C7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="AMD7"/>
+      <c r="AME7"/>
       <c r="AMF7"/>
       <c r="AMG7"/>
       <c r="AMH7"/>
@@ -1289,10 +1230,8 @@
       <c r="AMJ7"/>
       <c r="AMK7"/>
       <c r="AML7"/>
-      <c r="AMM7"/>
-      <c r="AMN7"/>
-    </row>
-    <row r="8" spans="1:1028" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1302,15 +1241,13 @@
       <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
+      <c r="D8"/>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
       <c r="G8"/>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1332,10 +1269,8 @@
       <c r="AA8"/>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AD8"/>
-      <c r="AE8"/>
-    </row>
-    <row r="9" spans="1:1028" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1026" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -1345,27 +1280,25 @@
       <c r="C9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="9"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="9"/>
+      <c r="AMD9"/>
+      <c r="AME9"/>
       <c r="AMF9"/>
       <c r="AMG9"/>
       <c r="AMH9"/>
@@ -1373,10 +1306,8 @@
       <c r="AMJ9"/>
       <c r="AMK9"/>
       <c r="AML9"/>
-      <c r="AMM9"/>
-      <c r="AMN9"/>
-    </row>
-    <row r="10" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
@@ -1386,25 +1317,23 @@
       <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="41"/>
-      <c r="T10" s="9"/>
+      <c r="O10" s="41"/>
+      <c r="R10" s="9"/>
+      <c r="AMD10"/>
+      <c r="AME10"/>
       <c r="AMF10"/>
       <c r="AMG10"/>
       <c r="AMH10"/>
@@ -1412,10 +1341,8 @@
       <c r="AMJ10"/>
       <c r="AMK10"/>
       <c r="AML10"/>
-      <c r="AMM10"/>
-      <c r="AMN10"/>
-    </row>
-    <row r="11" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
@@ -1425,25 +1352,23 @@
       <c r="C11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="41"/>
-      <c r="T11" s="9"/>
+      <c r="O11" s="41"/>
+      <c r="R11" s="9"/>
+      <c r="AMD11"/>
+      <c r="AME11"/>
       <c r="AMF11"/>
       <c r="AMG11"/>
       <c r="AMH11"/>
@@ -1451,10 +1376,8 @@
       <c r="AMJ11"/>
       <c r="AMK11"/>
       <c r="AML11"/>
-      <c r="AMM11"/>
-      <c r="AMN11"/>
-    </row>
-    <row r="12" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>39</v>
       </c>
@@ -1464,23 +1387,21 @@
       <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="41"/>
-      <c r="T12" s="9"/>
+      <c r="O12" s="41"/>
+      <c r="R12" s="9"/>
+      <c r="AMD12"/>
+      <c r="AME12"/>
       <c r="AMF12"/>
       <c r="AMG12"/>
       <c r="AMH12"/>
@@ -1488,29 +1409,27 @@
       <c r="AMJ12"/>
       <c r="AMK12"/>
       <c r="AML12"/>
-      <c r="AMM12"/>
-      <c r="AMN12"/>
-    </row>
-    <row r="13" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1026" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="AMD13"/>
+      <c r="AME13"/>
       <c r="AMF13"/>
       <c r="AMG13"/>
       <c r="AMH13"/>
@@ -1518,29 +1437,27 @@
       <c r="AMJ13"/>
       <c r="AMK13"/>
       <c r="AML13"/>
-      <c r="AMM13"/>
-      <c r="AMN13"/>
-    </row>
-    <row r="14" spans="1:1028" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1026" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="AMD14"/>
+      <c r="AME14"/>
       <c r="AMF14"/>
       <c r="AMG14"/>
       <c r="AMH14"/>
@@ -1548,34 +1465,30 @@
       <c r="AMJ14"/>
       <c r="AMK14"/>
       <c r="AML14"/>
-      <c r="AMM14"/>
-      <c r="AMN14"/>
-    </row>
-    <row r="15" spans="1:1028" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1026" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>88</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D15" s="38"/>
       <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="39"/>
       <c r="H15" s="39"/>
       <c r="I15" s="39"/>
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="O15" s="39" t="s">
-        <v>89</v>
-      </c>
+      <c r="M15" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
       <c r="P15" s="33"/>
       <c r="Q15" s="33"/>
       <c r="R15" s="33"/>
@@ -1590,10 +1503,8 @@
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
       <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-    </row>
-    <row r="16" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -1603,15 +1514,13 @@
       <c r="C16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="7"/>
-      <c r="H16" s="18" t="s">
-        <v>20</v>
-      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -1620,21 +1529,21 @@
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="19"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="U16" s="19"/>
-      <c r="V16" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="V16" s="19"/>
       <c r="W16" s="19"/>
       <c r="X16" s="19"/>
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
       <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="AMD16"/>
+      <c r="AME16"/>
       <c r="AMF16"/>
       <c r="AMG16"/>
       <c r="AMH16"/>
@@ -1642,19 +1551,17 @@
       <c r="AMJ16"/>
       <c r="AMK16"/>
       <c r="AML16"/>
-      <c r="AMM16"/>
-      <c r="AMN16"/>
-    </row>
-    <row r="17" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="30"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="7"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="29"/>
@@ -1663,8 +1570,8 @@
       <c r="O17" s="29"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
-      <c r="R17" s="29"/>
-      <c r="S17" s="29"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="19"/>
       <c r="U17" s="19"/>
       <c r="V17" s="19"/>
@@ -1673,8 +1580,8 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
       <c r="AA17" s="19"/>
-      <c r="AB17" s="19"/>
-      <c r="AC17" s="19"/>
+      <c r="AMD17"/>
+      <c r="AME17"/>
       <c r="AMF17"/>
       <c r="AMG17"/>
       <c r="AMH17"/>
@@ -1682,27 +1589,23 @@
       <c r="AMJ17"/>
       <c r="AMK17"/>
       <c r="AML17"/>
-      <c r="AMM17"/>
-      <c r="AMN17"/>
-    </row>
-    <row r="18" spans="1:1028" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1026" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D18" s="33"/>
       <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="33"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="34"/>
@@ -1711,8 +1614,8 @@
       <c r="O18" s="34"/>
       <c r="P18" s="34"/>
       <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
@@ -1721,8 +1624,8 @@
       <c r="Y18" s="35"/>
       <c r="Z18" s="35"/>
       <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
+      <c r="AMD18" s="37"/>
+      <c r="AME18" s="37"/>
       <c r="AMF18" s="37"/>
       <c r="AMG18" s="37"/>
       <c r="AMH18" s="37"/>
@@ -1730,10 +1633,8 @@
       <c r="AMJ18" s="37"/>
       <c r="AMK18" s="37"/>
       <c r="AML18" s="37"/>
-      <c r="AMM18" s="37"/>
-      <c r="AMN18" s="37"/>
-    </row>
-    <row r="19" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1743,13 +1644,11 @@
       <c r="C19" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
       <c r="G19" s="21"/>
-      <c r="I19" s="21"/>
+      <c r="AMD19"/>
+      <c r="AME19"/>
       <c r="AMF19"/>
       <c r="AMG19"/>
       <c r="AMH19"/>
@@ -1757,10 +1656,8 @@
       <c r="AMJ19"/>
       <c r="AMK19"/>
       <c r="AML19"/>
-      <c r="AMM19"/>
-      <c r="AMN19"/>
-    </row>
-    <row r="20" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -1768,13 +1665,11 @@
       <c r="C20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>50</v>
-      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="AMD20"/>
+      <c r="AME20"/>
       <c r="AMF20"/>
       <c r="AMG20"/>
       <c r="AMH20"/>
@@ -1782,20 +1677,18 @@
       <c r="AMJ20"/>
       <c r="AMK20"/>
       <c r="AML20"/>
-      <c r="AMM20"/>
-      <c r="AMN20"/>
-    </row>
-    <row r="21" spans="1:1028" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1026" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="21"/>
       <c r="C21"/>
-      <c r="D21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="AMD21"/>
+      <c r="AME21"/>
       <c r="AMF21"/>
       <c r="AMG21"/>
       <c r="AMH21"/>
@@ -1803,10 +1696,8 @@
       <c r="AMJ21"/>
       <c r="AMK21"/>
       <c r="AML21"/>
-      <c r="AMM21"/>
-      <c r="AMN21"/>
-    </row>
-    <row r="22" spans="1:1028" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -1816,44 +1707,39 @@
       <c r="C22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="H22" s="18" t="s">
+      <c r="D22" s="7"/>
+      <c r="F22" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:1028" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1026" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="F23" s="39"/>
       <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="39"/>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
       <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="38" t="s">
-        <v>86</v>
-      </c>
+      <c r="N23" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="O23" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
@@ -1866,10 +1752,8 @@
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
       <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-    </row>
-    <row r="24" spans="1:1028" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>30</v>
       </c>
@@ -1882,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:AMI7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1893,12 +1777,11 @@
     <col min="1" max="1" width="27.375" style="23" customWidth="1"/>
     <col min="2" max="2" width="21.625" style="23" customWidth="1"/>
     <col min="3" max="3" width="76.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="103.625" style="24" customWidth="1"/>
-    <col min="5" max="1022" width="10.5" customWidth="1"/>
-    <col min="1023" max="1025" width="8.375" customWidth="1"/>
+    <col min="4" max="1021" width="10.5" customWidth="1"/>
+    <col min="1022" max="1024" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1023" s="26" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>54</v>
       </c>
@@ -1908,13 +1791,10 @@
       <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
-        <v>90</v>
-      </c>
+      <c r="AMH1"/>
       <c r="AMI1"/>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
@@ -1924,11 +1804,8 @@
       <c r="C2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>55</v>
       </c>
@@ -1936,13 +1813,10 @@
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>55</v>
       </c>
@@ -1950,52 +1824,40 @@
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>82</v>
-      </c>
       <c r="C7" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2045,14 +1907,14 @@
     </row>
     <row r="2" spans="1:6" s="24" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="20" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-06-28 20-00</v>
+        <v>2020-08-24 15-09</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>65</v>
